--- a/_data/LINKUSDT_4h.xlsx
+++ b/_data/LINKUSDT_4h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1084"/>
+  <dimension ref="A1:F1116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22081,6 +22081,646 @@
         <v>127775.95</v>
       </c>
     </row>
+    <row r="1085" spans="1:6">
+      <c r="A1085" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1085">
+        <v>11.03</v>
+      </c>
+      <c r="C1085">
+        <v>11.17</v>
+      </c>
+      <c r="D1085">
+        <v>10.51</v>
+      </c>
+      <c r="E1085">
+        <v>10.54</v>
+      </c>
+      <c r="F1085">
+        <v>550427.75</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6">
+      <c r="A1086" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1086">
+        <v>10.54</v>
+      </c>
+      <c r="C1086">
+        <v>11.11</v>
+      </c>
+      <c r="D1086">
+        <v>10.5</v>
+      </c>
+      <c r="E1086">
+        <v>11</v>
+      </c>
+      <c r="F1086">
+        <v>367917.74</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6">
+      <c r="A1087" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1087">
+        <v>10.99</v>
+      </c>
+      <c r="C1087">
+        <v>11.14</v>
+      </c>
+      <c r="D1087">
+        <v>10.96</v>
+      </c>
+      <c r="E1087">
+        <v>11.11</v>
+      </c>
+      <c r="F1087">
+        <v>163267.88</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6">
+      <c r="A1088" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1088">
+        <v>11.12</v>
+      </c>
+      <c r="C1088">
+        <v>11.18</v>
+      </c>
+      <c r="D1088">
+        <v>11.07</v>
+      </c>
+      <c r="E1088">
+        <v>11.11</v>
+      </c>
+      <c r="F1088">
+        <v>125490.37</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6">
+      <c r="A1089" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1089">
+        <v>11.12</v>
+      </c>
+      <c r="C1089">
+        <v>11.18</v>
+      </c>
+      <c r="D1089">
+        <v>11.09</v>
+      </c>
+      <c r="E1089">
+        <v>11.12</v>
+      </c>
+      <c r="F1089">
+        <v>87331.38</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6">
+      <c r="A1090" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1090">
+        <v>11.13</v>
+      </c>
+      <c r="C1090">
+        <v>11.2</v>
+      </c>
+      <c r="D1090">
+        <v>11.03</v>
+      </c>
+      <c r="E1090">
+        <v>11.15</v>
+      </c>
+      <c r="F1090">
+        <v>159002.15</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6">
+      <c r="A1091" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1091">
+        <v>11.14</v>
+      </c>
+      <c r="C1091">
+        <v>11.21</v>
+      </c>
+      <c r="D1091">
+        <v>11.03</v>
+      </c>
+      <c r="E1091">
+        <v>11.09</v>
+      </c>
+      <c r="F1091">
+        <v>131788.48</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6">
+      <c r="A1092" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1092">
+        <v>11.09</v>
+      </c>
+      <c r="C1092">
+        <v>11.11</v>
+      </c>
+      <c r="D1092">
+        <v>10.93</v>
+      </c>
+      <c r="E1092">
+        <v>11.03</v>
+      </c>
+      <c r="F1092">
+        <v>177944.94</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6">
+      <c r="A1093" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1093">
+        <v>11.02</v>
+      </c>
+      <c r="C1093">
+        <v>11.06</v>
+      </c>
+      <c r="D1093">
+        <v>10.99</v>
+      </c>
+      <c r="E1093">
+        <v>11.06</v>
+      </c>
+      <c r="F1093">
+        <v>28981.75</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6">
+      <c r="A1094" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1094">
+        <v>11.02</v>
+      </c>
+      <c r="C1094">
+        <v>11.02</v>
+      </c>
+      <c r="D1094">
+        <v>10.83</v>
+      </c>
+      <c r="E1094">
+        <v>10.94</v>
+      </c>
+      <c r="F1094">
+        <v>165212.69</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6">
+      <c r="A1095" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1095">
+        <v>10.94</v>
+      </c>
+      <c r="C1095">
+        <v>10.97</v>
+      </c>
+      <c r="D1095">
+        <v>10.78</v>
+      </c>
+      <c r="E1095">
+        <v>10.88</v>
+      </c>
+      <c r="F1095">
+        <v>186669.68</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6">
+      <c r="A1096" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1096">
+        <v>10.88</v>
+      </c>
+      <c r="C1096">
+        <v>10.9</v>
+      </c>
+      <c r="D1096">
+        <v>10.7</v>
+      </c>
+      <c r="E1096">
+        <v>10.81</v>
+      </c>
+      <c r="F1096">
+        <v>165189.02</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6">
+      <c r="A1097" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1097">
+        <v>10.8</v>
+      </c>
+      <c r="C1097">
+        <v>10.82</v>
+      </c>
+      <c r="D1097">
+        <v>10.52</v>
+      </c>
+      <c r="E1097">
+        <v>10.7</v>
+      </c>
+      <c r="F1097">
+        <v>348491.28</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6">
+      <c r="A1098" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1098">
+        <v>10.7</v>
+      </c>
+      <c r="C1098">
+        <v>10.74</v>
+      </c>
+      <c r="D1098">
+        <v>10.69</v>
+      </c>
+      <c r="E1098">
+        <v>10.7</v>
+      </c>
+      <c r="F1098">
+        <v>16914.8</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6">
+      <c r="A1099" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1099">
+        <v>10.71</v>
+      </c>
+      <c r="C1099">
+        <v>10.77</v>
+      </c>
+      <c r="D1099">
+        <v>10.23</v>
+      </c>
+      <c r="E1099">
+        <v>10.37</v>
+      </c>
+      <c r="F1099">
+        <v>386833.01</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6">
+      <c r="A1100" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1100">
+        <v>10.37</v>
+      </c>
+      <c r="C1100">
+        <v>10.51</v>
+      </c>
+      <c r="D1100">
+        <v>10.32</v>
+      </c>
+      <c r="E1100">
+        <v>10.48</v>
+      </c>
+      <c r="F1100">
+        <v>190812.54</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6">
+      <c r="A1101" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1101">
+        <v>10.48</v>
+      </c>
+      <c r="C1101">
+        <v>10.52</v>
+      </c>
+      <c r="D1101">
+        <v>10.33</v>
+      </c>
+      <c r="E1101">
+        <v>10.38</v>
+      </c>
+      <c r="F1101">
+        <v>171340.48</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6">
+      <c r="A1102" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1102">
+        <v>10.38</v>
+      </c>
+      <c r="C1102">
+        <v>10.79</v>
+      </c>
+      <c r="D1102">
+        <v>10.37</v>
+      </c>
+      <c r="E1102">
+        <v>10.74</v>
+      </c>
+      <c r="F1102">
+        <v>295421.94</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1103">
+        <v>10.75</v>
+      </c>
+      <c r="C1103">
+        <v>10.79</v>
+      </c>
+      <c r="D1103">
+        <v>10.59</v>
+      </c>
+      <c r="E1103">
+        <v>10.66</v>
+      </c>
+      <c r="F1103">
+        <v>308048.74</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6">
+      <c r="A1104" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1104">
+        <v>10.66</v>
+      </c>
+      <c r="C1104">
+        <v>10.71</v>
+      </c>
+      <c r="D1104">
+        <v>10.55</v>
+      </c>
+      <c r="E1104">
+        <v>10.66</v>
+      </c>
+      <c r="F1104">
+        <v>190022.86</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6">
+      <c r="A1105" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1105">
+        <v>10.67</v>
+      </c>
+      <c r="C1105">
+        <v>10.84</v>
+      </c>
+      <c r="D1105">
+        <v>10.64</v>
+      </c>
+      <c r="E1105">
+        <v>10.77</v>
+      </c>
+      <c r="F1105">
+        <v>159313.35</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6">
+      <c r="A1106" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1106">
+        <v>10.77</v>
+      </c>
+      <c r="C1106">
+        <v>10.88</v>
+      </c>
+      <c r="D1106">
+        <v>10.69</v>
+      </c>
+      <c r="E1106">
+        <v>10.7</v>
+      </c>
+      <c r="F1106">
+        <v>158383.22</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6">
+      <c r="A1107" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1107">
+        <v>10.7</v>
+      </c>
+      <c r="C1107">
+        <v>10.73</v>
+      </c>
+      <c r="D1107">
+        <v>10.61</v>
+      </c>
+      <c r="E1107">
+        <v>10.69</v>
+      </c>
+      <c r="F1107">
+        <v>174493.44</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6">
+      <c r="A1108" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1108">
+        <v>10.7</v>
+      </c>
+      <c r="C1108">
+        <v>10.71</v>
+      </c>
+      <c r="D1108">
+        <v>10.54</v>
+      </c>
+      <c r="E1108">
+        <v>10.67</v>
+      </c>
+      <c r="F1108">
+        <v>186015.58</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6">
+      <c r="A1109" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1109">
+        <v>10.67</v>
+      </c>
+      <c r="C1109">
+        <v>10.74</v>
+      </c>
+      <c r="D1109">
+        <v>10.27</v>
+      </c>
+      <c r="E1109">
+        <v>10.3</v>
+      </c>
+      <c r="F1109">
+        <v>439936.79</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6">
+      <c r="A1110" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1110">
+        <v>10.29</v>
+      </c>
+      <c r="C1110">
+        <v>10.51</v>
+      </c>
+      <c r="D1110">
+        <v>10.21</v>
+      </c>
+      <c r="E1110">
+        <v>10.5</v>
+      </c>
+      <c r="F1110">
+        <v>389523.58</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6">
+      <c r="A1111" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1111">
+        <v>10.49</v>
+      </c>
+      <c r="C1111">
+        <v>10.52</v>
+      </c>
+      <c r="D1111">
+        <v>10.29</v>
+      </c>
+      <c r="E1111">
+        <v>10.31</v>
+      </c>
+      <c r="F1111">
+        <v>248381.63</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6">
+      <c r="A1112" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1112">
+        <v>10.32</v>
+      </c>
+      <c r="C1112">
+        <v>10.39</v>
+      </c>
+      <c r="D1112">
+        <v>9.82</v>
+      </c>
+      <c r="E1112">
+        <v>10.25</v>
+      </c>
+      <c r="F1112">
+        <v>697334.65</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6">
+      <c r="A1113" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1113">
+        <v>10.25</v>
+      </c>
+      <c r="C1113">
+        <v>10.41</v>
+      </c>
+      <c r="D1113">
+        <v>10.17</v>
+      </c>
+      <c r="E1113">
+        <v>10.26</v>
+      </c>
+      <c r="F1113">
+        <v>312608</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6">
+      <c r="A1114" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1114">
+        <v>10.27</v>
+      </c>
+      <c r="C1114">
+        <v>10.3</v>
+      </c>
+      <c r="D1114">
+        <v>10.09</v>
+      </c>
+      <c r="E1114">
+        <v>10.12</v>
+      </c>
+      <c r="F1114">
+        <v>241012.14</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6">
+      <c r="A1115" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1115">
+        <v>10.12</v>
+      </c>
+      <c r="C1115">
+        <v>10.41</v>
+      </c>
+      <c r="D1115">
+        <v>10.06</v>
+      </c>
+      <c r="E1115">
+        <v>10.4</v>
+      </c>
+      <c r="F1115">
+        <v>561812.48</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6">
+      <c r="A1116" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1116">
+        <v>10.39</v>
+      </c>
+      <c r="C1116">
+        <v>10.5</v>
+      </c>
+      <c r="D1116">
+        <v>10.27</v>
+      </c>
+      <c r="E1116">
+        <v>10.3</v>
+      </c>
+      <c r="F1116">
+        <v>316415.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
